--- a/Data/data_usa.xlsx
+++ b/Data/data_usa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\git\Macro-1-EC\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinvaldez/Documents/git/Macro-1-EC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC266F-4558-4DBF-948C-F80BC094BB48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0FD680-905A-3B46-9177-73B681DEF977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{3676DFEE-314F-47A0-B209-E72E863CBD9D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3676DFEE-314F-47A0-B209-E72E863CBD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Year</t>
   </si>
@@ -101,13 +112,17 @@
   <si>
     <t>ln(realWages)</t>
   </si>
+  <si>
+    <t>realgdp/worker</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -158,13 +173,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,7 +252,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$E$1</c:f>
+              <c:f>data!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -496,11 +511,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>data!$E$2:$E$69</c15:sqref>
+                    <c15:sqref>data!$F$2:$F$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>data!$E$3:$E$69</c:f>
+              <c:f>data!$F$3:$F$69</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="67"/>
@@ -973,7 +988,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$G$1</c:f>
+              <c:f>data!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1223,7 +1238,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$G$2:$G$69</c:f>
+              <c:f>data!$H$2:$H$69</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="68"/>
@@ -1668,7 +1683,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$I$1</c:f>
+              <c:f>data!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1904,7 +1919,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$I$2:$I$69</c:f>
+              <c:f>data!$J$2:$J$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
@@ -2350,7 +2365,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$K$1</c:f>
+              <c:f>data!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2586,7 +2601,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$K$2:$K$69</c:f>
+              <c:f>data!$L$2:$L$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
@@ -3032,7 +3047,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$M$1</c:f>
+              <c:f>data!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3282,7 +3297,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$M$2:$M$69</c:f>
+              <c:f>data!$N$2:$N$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
@@ -3726,7 +3741,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$J$1</c:f>
+              <c:f>data!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3971,11 +3986,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>data!$J$2:$J$69</c15:sqref>
+                    <c15:sqref>data!$K$2:$K$69</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>data!$J$3:$J$69</c:f>
+              <c:f>data!$K$3:$K$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -7698,16 +7713,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2266</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>565602</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7736,16 +7751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257628</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>83231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>300263</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>145597</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7772,16 +7787,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>170316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>51253</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7808,16 +7823,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>164193</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>35149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>109763</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7844,16 +7859,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>852486</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>462189</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>159656</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7881,15 +7896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>297997</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>156936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>588736</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7920,9 +7935,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7960,7 +7975,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8066,7 +8081,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8208,7 +8223,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8216,28 +8231,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659D75DE-7802-47BA-94F8-B38737487CF7}">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -8250,35 +8266,38 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>1955</v>
       </c>
       <c r="B2" s="3">
@@ -8291,42 +8310,46 @@
       <c r="D2" s="2">
         <v>58985580</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
+        <f>B2*1000/D2</f>
+        <v>52.267452485844842</v>
+      </c>
+      <c r="F2" s="5">
         <f>LN(B2*1000000/D2)</f>
         <v>10.864129132923019</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>1345192</v>
       </c>
-      <c r="G2" s="9">
-        <f>LN(F2*1000000/D2)</f>
+      <c r="H2" s="8">
+        <f>LN(G2*1000000/D2)</f>
         <v>10.034754304505647</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>425478</v>
       </c>
-      <c r="I2">
-        <f>F2/H2</f>
+      <c r="J2">
+        <f>G2/I2</f>
         <v>3.1616017749448857</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.61174507239186326</v>
       </c>
-      <c r="K2">
-        <f>(1-J2)*(H2/F2)</f>
+      <c r="L2">
+        <f>(1-K2)*(I2/G2)</f>
         <v>0.12280323558930979</v>
       </c>
-      <c r="L2">
-        <f>J2*B2*1000000/D2</f>
+      <c r="M2">
+        <f>K2*B2*1000000/D2</f>
         <v>31974.356504691426</v>
       </c>
-      <c r="M2">
-        <f>LN(L2)</f>
+      <c r="N2">
+        <f>LN(M2)</f>
         <v>10.372689501293523</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>1956</v>
       </c>
       <c r="B3" s="3">
@@ -8339,42 +8362,46 @@
       <c r="D3" s="2">
         <v>60486330</v>
       </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:E66" si="1">LN(B3*1000000/D3)</f>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E66" si="1">B3*1000/D3</f>
+        <v>52.057464885040964</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F66" si="2">LN(B3*1000000/D3)</f>
         <v>10.860103481339834</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>1460568</v>
       </c>
-      <c r="G3" s="9">
-        <f t="shared" ref="G3:G66" si="2">LN(F3*1000000/D3)</f>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H66" si="3">LN(G3*1000000/D3)</f>
         <v>10.091918570030613</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>449353</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I66" si="3">F3/H3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="4">G3/I3</f>
         <v>3.2503799907867532</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.62309870843404813</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" si="4">(1-J3)*(H3/F3)</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="5">(1-K3)*(I3/G3)</f>
         <v>0.11595607056229849</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L66" si="5">J3*B3*1000000/D3</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="6">K3*B3*1000000/D3</f>
         <v>32436.93913421984</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M66" si="6">LN(L3)</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="7">LN(M3)</f>
         <v>10.38705314909887</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>1957</v>
       </c>
       <c r="B4" s="3">
@@ -8387,42 +8414,46 @@
       <c r="D4" s="2">
         <v>60889830</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <f t="shared" si="1"/>
+        <v>52.801346300359192</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="2"/>
         <v>10.874291967482145</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>1537935</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" si="2"/>
+      <c r="H4" s="8">
+        <f t="shared" si="3"/>
         <v>10.136884999779101</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>474039</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
+      <c r="J4">
+        <f t="shared" si="4"/>
         <v>3.2443216697360344</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.62737377309261899</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="4"/>
-        <v>0.1148548956730603</v>
       </c>
       <c r="L4">
         <f t="shared" si="5"/>
-        <v>33126.179852826346</v>
+        <v>0.1148548956730603</v>
       </c>
       <c r="M4">
         <f t="shared" si="6"/>
+        <v>33126.179852826346</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="7"/>
         <v>10.408079180852742</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>1958</v>
       </c>
       <c r="B5" s="3">
@@ -8435,42 +8466,46 @@
       <c r="D5" s="2">
         <v>59991170</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <f t="shared" si="1"/>
+        <v>53.194761829115855</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
         <v>10.881715208623325</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>1587628</v>
       </c>
-      <c r="G5" s="9">
-        <f t="shared" si="2"/>
+      <c r="H5" s="8">
+        <f t="shared" si="3"/>
         <v>10.183554251694469</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>481229</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
+      <c r="J5">
+        <f t="shared" si="4"/>
         <v>3.2991112339447541</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.62903290973174542</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="4"/>
-        <v>0.11244455368808177</v>
       </c>
       <c r="L5">
         <f t="shared" si="5"/>
-        <v>33461.255815855926</v>
+        <v>0.11244455368808177</v>
       </c>
       <c r="M5">
         <f t="shared" si="6"/>
+        <v>33461.255815855926</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
         <v>10.418143505691143</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>1959</v>
       </c>
       <c r="B6" s="3">
@@ -8483,42 +8518,46 @@
       <c r="D6" s="2">
         <v>61606670</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="9">
         <f t="shared" si="1"/>
+        <v>55.390447170736543</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
         <v>10.922162424125752</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>1651338</v>
       </c>
-      <c r="G6" s="9">
-        <f t="shared" si="2"/>
+      <c r="H6" s="8">
+        <f t="shared" si="3"/>
         <v>10.196326282460051</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>521654</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
+      <c r="J6">
+        <f t="shared" si="4"/>
         <v>3.1655810173026566</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.62303061215592925</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="4"/>
-        <v>0.119083790869229</v>
       </c>
       <c r="L6">
         <f t="shared" si="5"/>
-        <v>34509.944208374647</v>
+        <v>0.119083790869229</v>
       </c>
       <c r="M6">
         <f t="shared" si="6"/>
+        <v>34509.944208374647</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
         <v>10.449002799410785</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>1960</v>
       </c>
       <c r="B7" s="3">
@@ -8531,42 +8570,46 @@
       <c r="D7" s="2">
         <v>62703250</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <f t="shared" si="1"/>
+        <v>55.82281620171203</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
         <v>10.929937957299444</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>1705866</v>
       </c>
-      <c r="G7" s="9">
-        <f t="shared" si="2"/>
+      <c r="H7" s="8">
+        <f t="shared" si="3"/>
         <v>10.211170177215372</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>542382</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
+      <c r="J7">
+        <f t="shared" si="4"/>
         <v>3.1451375598747746</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.62911332404818532</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="4"/>
-        <v>0.11792383286617891</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>35118.87745838995</v>
+        <v>0.11792383286617891</v>
       </c>
       <c r="M7">
         <f t="shared" si="6"/>
+        <v>35118.87745838995</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
         <v>10.466494084208325</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>1961</v>
       </c>
       <c r="B8" s="3">
@@ -8579,42 +8622,46 @@
       <c r="D8" s="2">
         <v>62758330</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <f t="shared" si="1"/>
+        <v>57.204613315873765</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
         <v>10.954389826491077</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1768469</v>
       </c>
-      <c r="G8" s="9">
-        <f t="shared" si="2"/>
+      <c r="H8" s="8">
+        <f t="shared" si="3"/>
         <v>10.246333440289169</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>562209</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
+      <c r="J8">
+        <f t="shared" si="4"/>
         <v>3.1455721982394449</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.62580286187751744</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="4"/>
-        <v>0.11895995848765389</v>
       </c>
       <c r="L8">
         <f t="shared" si="5"/>
-        <v>35798.810725670548</v>
+        <v>0.11895995848765389</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
+        <v>35798.810725670548</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
         <v>10.48566995188366</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>1962</v>
       </c>
       <c r="B9" s="3">
@@ -8627,42 +8674,46 @@
       <c r="D9" s="2">
         <v>63689420</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <f t="shared" si="1"/>
+        <v>59.823499727270246</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
         <v>10.999153834773368</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1847387</v>
       </c>
-      <c r="G9" s="9">
-        <f t="shared" si="2"/>
+      <c r="H9" s="8">
+        <f t="shared" si="3"/>
         <v>10.275264308467474</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>603922</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
+      <c r="J9">
+        <f t="shared" si="4"/>
         <v>3.0589827825447657</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.62215821301954677</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>0.12351876876735046</v>
       </c>
       <c r="L9">
         <f t="shared" si="5"/>
-        <v>37219.681686893797</v>
+        <v>0.12351876876735046</v>
       </c>
       <c r="M9">
         <f t="shared" si="6"/>
+        <v>37219.681686893797</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
         <v>10.524592977953702</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>1963</v>
       </c>
       <c r="B10" s="3">
@@ -8675,42 +8726,46 @@
       <c r="D10" s="2">
         <v>64847750</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
+        <v>61.315034060549515</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
         <v>11.023780345697064</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1922197</v>
       </c>
-      <c r="G10" s="9">
-        <f t="shared" si="2"/>
+      <c r="H10" s="8">
+        <f t="shared" si="3"/>
         <v>10.296937145948908</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>637450</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
+      <c r="J10">
+        <f t="shared" si="4"/>
         <v>3.0154474860773393</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.6197786959474757</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
-        <v>0.12609117081562485</v>
       </c>
       <c r="L10">
         <f t="shared" si="5"/>
-        <v>38001.751852022433</v>
+        <v>0.12609117081562485</v>
       </c>
       <c r="M10">
         <f t="shared" si="6"/>
+        <v>38001.751852022433</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
         <v>10.545387539014898</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>1964</v>
       </c>
       <c r="B11" s="3">
@@ -8723,42 +8778,46 @@
       <c r="D11" s="2">
         <v>66331500</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <f t="shared" si="1"/>
+        <v>63.397887881323356</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
         <v>11.057185825695678</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>2044884</v>
       </c>
-      <c r="G11" s="9">
-        <f t="shared" si="2"/>
+      <c r="H11" s="8">
+        <f t="shared" si="3"/>
         <v>10.336186724650322</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>684460</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
+      <c r="J11">
+        <f t="shared" si="4"/>
         <v>2.9875872950939426</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.61935684739581021</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>0.12740821104349379</v>
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
-        <v>39265.915969729467</v>
+        <v>0.12740821104349379</v>
       </c>
       <c r="M11">
         <f t="shared" si="6"/>
+        <v>39265.915969729467</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
         <v>10.578112143430159</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>1965</v>
       </c>
       <c r="B12" s="3">
@@ -8771,42 +8830,46 @@
       <c r="D12" s="2">
         <v>68083250</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="9">
         <f t="shared" si="1"/>
+        <v>65.780570110856928</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
         <v>11.094079786638554</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2181999</v>
       </c>
-      <c r="G12" s="9">
-        <f t="shared" si="2"/>
+      <c r="H12" s="8">
+        <f t="shared" si="3"/>
         <v>10.37502076599886</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>742289</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
+      <c r="J12">
+        <f t="shared" si="4"/>
         <v>2.9395545400780558</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.61536628421463258</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="4"/>
-        <v>0.13084762012109291</v>
       </c>
       <c r="L12">
         <f t="shared" si="5"/>
-        <v>40479.14500263815</v>
+        <v>0.13084762012109291</v>
       </c>
       <c r="M12">
         <f t="shared" si="6"/>
+        <v>40479.14500263815</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
         <v>10.608542182261955</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>1966</v>
       </c>
       <c r="B13" s="3">
@@ -8819,42 +8882,46 @@
       <c r="D13" s="2">
         <v>69937090</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="9">
         <f t="shared" si="1"/>
+        <v>68.260360847155638</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
         <v>11.131084508809979</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>2369146</v>
       </c>
-      <c r="G13" s="9">
-        <f t="shared" si="2"/>
+      <c r="H13" s="8">
+        <f t="shared" si="3"/>
         <v>10.430443986943558</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>813414</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
+      <c r="J13">
+        <f t="shared" si="4"/>
         <v>2.9125955540475084</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.62561308129576354</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="4"/>
-        <v>0.12854064759659717</v>
       </c>
       <c r="L13">
         <f t="shared" si="5"/>
-        <v>42704.574679949736</v>
+        <v>0.12854064759659717</v>
       </c>
       <c r="M13">
         <f t="shared" si="6"/>
+        <v>42704.574679949736</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="7"/>
         <v>10.662061328839954</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>1967</v>
       </c>
       <c r="B14" s="3">
@@ -8867,42 +8934,46 @@
       <c r="D14" s="2">
         <v>71361500</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="9">
         <f t="shared" si="1"/>
+        <v>68.732635945152495</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
         <v>11.137979415557622</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2557043</v>
       </c>
-      <c r="G14" s="9">
-        <f t="shared" si="2"/>
+      <c r="H14" s="8">
+        <f t="shared" si="3"/>
         <v>10.486603562483653</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>859959</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
+      <c r="J14">
+        <f t="shared" si="4"/>
         <v>2.9734475713377031</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.63524063303873624</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="4"/>
-        <v>0.1226722039686628</v>
       </c>
       <c r="L14">
         <f t="shared" si="5"/>
-        <v>43661.763168219666</v>
+        <v>0.1226722039686628</v>
       </c>
       <c r="M14">
         <f t="shared" si="6"/>
+        <v>43661.763168219666</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
         <v>10.684228013352186</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>1968</v>
       </c>
       <c r="B15" s="3">
@@ -8915,42 +8986,46 @@
       <c r="D15" s="2">
         <v>72854590</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="9">
         <f t="shared" si="1"/>
+        <v>70.632667070118714</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
         <v>11.165248022841368</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2813215</v>
       </c>
-      <c r="G15" s="9">
-        <f t="shared" si="2"/>
+      <c r="H15" s="8">
+        <f t="shared" si="3"/>
         <v>10.561372978574557</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>940651</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
+      <c r="J15">
+        <f t="shared" si="4"/>
         <v>2.990710688661363</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.63926956588770079</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="4"/>
-        <v>0.12061696087151831</v>
       </c>
       <c r="L15">
         <f t="shared" si="5"/>
-        <v>45153.314415405286</v>
+        <v>0.12061696087151831</v>
       </c>
       <c r="M15">
         <f t="shared" si="6"/>
+        <v>45153.314415405286</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="7"/>
         <v>10.717818965129901</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>1969</v>
       </c>
       <c r="B16" s="3">
@@ -8963,42 +9038,46 @@
       <c r="D16" s="2">
         <v>74747090</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="9">
         <f t="shared" si="1"/>
+        <v>70.99398785959427</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
         <v>11.170350474404183</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>3073456</v>
       </c>
-      <c r="G16" s="9">
-        <f t="shared" si="2"/>
+      <c r="H16" s="8">
+        <f t="shared" si="3"/>
         <v>10.624202937553132</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>1017615</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
+      <c r="J16">
+        <f t="shared" si="4"/>
         <v>3.0202542218815562</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.65138813039843968</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="4"/>
-        <v>0.11542467752412652</v>
       </c>
       <c r="L16">
         <f t="shared" si="5"/>
-        <v>46244.641021390635</v>
+        <v>0.11542467752412652</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
+        <v>46244.641021390635</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="7"/>
         <v>10.741700866419377</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>1970</v>
       </c>
       <c r="B17" s="3">
@@ -9011,42 +9090,46 @@
       <c r="D17" s="2">
         <v>75560910</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="9">
         <f t="shared" si="1"/>
+        <v>70.359012351757016</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
         <v>11.161366161683006</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3344730</v>
       </c>
-      <c r="G17" s="9">
-        <f t="shared" si="2"/>
+      <c r="H17" s="8">
+        <f t="shared" si="3"/>
         <v>10.697957444827846</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>1073303</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
+      <c r="J17">
+        <f t="shared" si="4"/>
         <v>3.1162961437730075</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.66488857316262784</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="4"/>
-        <v>0.10753516719102352</v>
       </c>
       <c r="L17">
         <f t="shared" si="5"/>
-        <v>46780.903331691428</v>
+        <v>0.10753516719102352</v>
       </c>
       <c r="M17">
         <f t="shared" si="6"/>
+        <v>46780.903331691428</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
         <v>10.753230350163175</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>1971</v>
       </c>
       <c r="B18" s="3">
@@ -9059,42 +9142,46 @@
       <c r="D18" s="2">
         <v>76325910</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="9">
         <f t="shared" si="1"/>
+        <v>71.947324309661028</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
         <v>11.183689523433065</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3672190</v>
       </c>
-      <c r="G18" s="9">
-        <f t="shared" si="2"/>
+      <c r="H18" s="8">
+        <f t="shared" si="3"/>
         <v>10.781286311054439</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>1164850</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
+      <c r="J18">
+        <f t="shared" si="4"/>
         <v>3.1525003219298622</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.65581231595203959</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="4"/>
-        <v>0.10917927007133799</v>
       </c>
       <c r="L18">
         <f t="shared" si="5"/>
-        <v>47183.94138207128</v>
+        <v>0.10917927007133799</v>
       </c>
       <c r="M18">
         <f t="shared" si="6"/>
+        <v>47183.94138207128</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="7"/>
         <v>10.761808888727888</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>1972</v>
       </c>
       <c r="B19" s="3">
@@ -9107,42 +9194,46 @@
       <c r="D19" s="2">
         <v>79149840</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="9">
         <f t="shared" si="1"/>
+        <v>73.02665425476539</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
         <v>11.198579780265575</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>4031017</v>
       </c>
-      <c r="G19" s="9">
-        <f t="shared" si="2"/>
+      <c r="H19" s="8">
+        <f t="shared" si="3"/>
         <v>10.838186494559441</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>1279110</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
+      <c r="J19">
+        <f t="shared" si="4"/>
         <v>3.1514232552321535</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.65326869721964664</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
-        <v>0.11002371776139316</v>
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
-        <v>47706.027287320154</v>
+        <v>0.11002371776139316</v>
       </c>
       <c r="M19">
         <f t="shared" si="6"/>
+        <v>47706.027287320154</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="7"/>
         <v>10.772813027118646</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>1973</v>
       </c>
       <c r="B20" s="3">
@@ -9155,42 +9246,46 @@
       <c r="D20" s="2">
         <v>82179750</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="9">
         <f t="shared" si="1"/>
+        <v>74.305056902704138</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
         <v>11.215934288991503</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4564476</v>
       </c>
-      <c r="G20" s="9">
-        <f t="shared" si="2"/>
+      <c r="H20" s="8">
+        <f t="shared" si="3"/>
         <v>10.924905357656405</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>1425376</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
+      <c r="J20">
+        <f t="shared" si="4"/>
         <v>3.2022960959073257</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.64850386939958471</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="4"/>
-        <v>0.10976378200930348</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
-        <v>48187.116917359948</v>
+        <v>0.10976378200930348</v>
       </c>
       <c r="M20">
         <f t="shared" si="6"/>
+        <v>48187.116917359948</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="7"/>
         <v>10.782846980439791</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>1974</v>
       </c>
       <c r="B21" s="3">
@@ -9203,42 +9298,46 @@
       <c r="D21" s="2">
         <v>83959750</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="9">
         <f t="shared" si="1"/>
+        <v>72.336601764535985</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="2"/>
         <v>11.189085528518474</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5413195</v>
       </c>
-      <c r="G21" s="9">
-        <f t="shared" si="2"/>
+      <c r="H21" s="8">
+        <f t="shared" si="3"/>
         <v>11.074012532176376</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>1545243</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="3"/>
+      <c r="J21">
+        <f t="shared" si="4"/>
         <v>3.503135105611221</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.65932192815540036</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="4"/>
-        <v>9.7249481271479171E-2</v>
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
-        <v>47693.107751603202</v>
+        <v>9.7249481271479171E-2</v>
       </c>
       <c r="M21">
         <f t="shared" si="6"/>
+        <v>47693.107751603202</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
         <v>10.772542174855873</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>1975</v>
       </c>
       <c r="B22" s="3">
@@ -9251,42 +9350,46 @@
       <c r="D22" s="2">
         <v>83046160</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="9">
         <f t="shared" si="1"/>
+        <v>72.982001816820912</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
         <v>11.19796813927746</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5854578</v>
       </c>
-      <c r="G22" s="9">
-        <f t="shared" si="2"/>
+      <c r="H22" s="8">
+        <f t="shared" si="3"/>
         <v>11.163337879483143</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>1684904</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
+      <c r="J22">
+        <f t="shared" si="4"/>
         <v>3.4747249694938107</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.65505012994090073</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
-        <v>9.9274006745158502E-2</v>
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
-        <v>47806.86977345559</v>
+        <v>9.9274006745158502E-2</v>
       </c>
       <c r="M22">
         <f t="shared" si="6"/>
+        <v>47806.86977345559</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="7"/>
         <v>10.774924627262894</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <v>1976</v>
       </c>
       <c r="B23" s="3">
@@ -9299,42 +9402,46 @@
       <c r="D23" s="2">
         <v>86005250</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="9">
         <f t="shared" si="1"/>
+        <v>74.267989454132163</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
         <v>11.215435309529886</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6382531</v>
       </c>
-      <c r="G23" s="9">
-        <f t="shared" si="2"/>
+      <c r="H23" s="8">
+        <f t="shared" si="3"/>
         <v>11.214666944215052</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>1873412</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
+      <c r="J23">
+        <f t="shared" si="4"/>
         <v>3.4069019521600161</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.65140048242360071</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>0.10232155855127649</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
-        <v>48378.204159052577</v>
+        <v>0.10232155855127649</v>
       </c>
       <c r="M23">
         <f t="shared" si="6"/>
+        <v>48378.204159052577</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
         <v>10.786804663984634</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
         <v>1977</v>
       </c>
       <c r="B24" s="3">
@@ -9347,42 +9454,46 @@
       <c r="D24" s="2">
         <v>89230090</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="9">
         <f t="shared" si="1"/>
+        <v>74.894063202222483</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
         <v>11.223829903376151</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7120212</v>
       </c>
-      <c r="G24" s="9">
-        <f t="shared" si="2"/>
+      <c r="H24" s="8">
+        <f t="shared" si="3"/>
         <v>11.287229743684847</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>2081826</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
+      <c r="J24">
+        <f t="shared" si="4"/>
         <v>3.4201763259753699</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.65026717386939159</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
-        <v>0.10225578823947658</v>
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
-        <v>48701.150818104805</v>
+        <v>0.10225578823947658</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
+        <v>48701.150818104805</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="7"/>
         <v>10.793457939553385</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <v>1978</v>
       </c>
       <c r="B25" s="3">
@@ -9395,42 +9506,46 @@
       <c r="D25" s="2">
         <v>93102160</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="9">
         <f t="shared" si="1"/>
+        <v>75.752388558976506</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
         <v>11.235225255006192</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>8054887</v>
       </c>
-      <c r="G25" s="9">
-        <f t="shared" si="2"/>
+      <c r="H25" s="8">
+        <f t="shared" si="3"/>
         <v>11.36809216106794</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>2351599</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
+      <c r="J25">
+        <f t="shared" si="4"/>
         <v>3.4252808408236266</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.65100627341902573</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="4"/>
-        <v>0.10188762405159656</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
-        <v>49315.280178369336</v>
+        <v>0.10188762405159656</v>
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
+        <v>49315.280178369336</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="7"/>
         <v>10.805989254774557</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <v>1979</v>
       </c>
       <c r="B26" s="3">
@@ -9443,42 +9558,46 @@
       <c r="D26" s="2">
         <v>95826660</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="9">
         <f t="shared" si="1"/>
+        <v>75.928755108442687</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="2"/>
         <v>11.237550746819915</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9255142</v>
       </c>
-      <c r="G26" s="9">
-        <f t="shared" si="2"/>
+      <c r="H26" s="8">
+        <f t="shared" si="3"/>
         <v>11.478148912567764</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>2627333</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
+      <c r="J26">
+        <f t="shared" si="4"/>
         <v>3.5226375948537929</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.65936656253250003</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
-        <v>9.6698405185117534E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>50064.882253225856</v>
+        <v>9.6698405185117534E-2</v>
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
+        <v>50064.882253225856</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="7"/>
         <v>10.821075088261097</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
         <v>1980</v>
       </c>
       <c r="B27" s="3">
@@ -9491,42 +9610,46 @@
       <c r="D27" s="2">
         <v>96342410</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="9">
         <f t="shared" si="1"/>
+        <v>75.328362659808903</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="2"/>
         <v>11.229612005017461</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10502344</v>
       </c>
-      <c r="G27" s="9">
-        <f t="shared" si="2"/>
+      <c r="H27" s="8">
+        <f t="shared" si="3"/>
         <v>11.599200411850026</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>2857307</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="3"/>
+      <c r="J27">
+        <f t="shared" si="4"/>
         <v>3.6756092362493775</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.67068534267133562</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>8.9594577704538533E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>50521.628723364571</v>
+        <v>8.9594577704538533E-2</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
+        <v>50521.628723364571</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="7"/>
         <v>10.830156815124578</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
         <v>1981</v>
       </c>
       <c r="B28" s="3">
@@ -9539,42 +9662,46 @@
       <c r="D28" s="2">
         <v>97452660</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="9">
         <f t="shared" si="1"/>
+        <v>76.359998793260232</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="2"/>
         <v>11.243214262036387</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>11550528</v>
       </c>
-      <c r="G28" s="9">
-        <f t="shared" si="2"/>
+      <c r="H28" s="8">
+        <f t="shared" si="3"/>
         <v>11.682874986542629</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>3207041</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="3"/>
+      <c r="J28">
+        <f t="shared" si="4"/>
         <v>3.6016153207894752</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.66021925971761053</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="4"/>
-        <v>9.4341208046591005E-2</v>
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
-        <v>50414.341875323909</v>
+        <v>9.4341208046591005E-2</v>
       </c>
       <c r="M28">
         <f t="shared" si="6"/>
+        <v>50414.341875323909</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
         <v>10.828030974597985</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <v>1982</v>
       </c>
       <c r="B29" s="3">
@@ -9587,42 +9714,46 @@
       <c r="D29" s="2">
         <v>96603910</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="9">
         <f t="shared" si="1"/>
+        <v>75.642010763332451</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="2"/>
         <v>11.233767105752385</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>12185682</v>
       </c>
-      <c r="G29" s="9">
-        <f t="shared" si="2"/>
+      <c r="H29" s="8">
+        <f t="shared" si="3"/>
         <v>11.745152997340824</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>3343789</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="3"/>
+      <c r="J29">
+        <f t="shared" si="4"/>
         <v>3.6442736069769954</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.66779236374514583</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
-        <v>9.1158807510731257E-2</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>50513.157166081546</v>
+        <v>9.1158807510731257E-2</v>
       </c>
       <c r="M29">
         <f t="shared" si="6"/>
+        <v>50513.157166081546</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="7"/>
         <v>10.829989119271545</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <v>1983</v>
       </c>
       <c r="B30" s="3">
@@ -9635,42 +9766,46 @@
       <c r="D30" s="2">
         <v>97906840</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="9">
         <f t="shared" si="1"/>
+        <v>78.056507594362145</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="2"/>
         <v>11.265188299717884</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>12642950</v>
       </c>
-      <c r="G30" s="9">
-        <f t="shared" si="2"/>
+      <c r="H30" s="8">
+        <f t="shared" si="3"/>
         <v>11.768593891221336</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>3634038</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="3"/>
+      <c r="J30">
+        <f t="shared" si="4"/>
         <v>3.4790362676449722</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.659476125686842</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="4"/>
-        <v>9.7878794044209627E-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
-        <v>51476.403212975514</v>
+        <v>9.7878794044209627E-2</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
+        <v>51476.403212975514</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
         <v>10.848878791611385</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <v>1984</v>
       </c>
       <c r="B31" s="3">
@@ -9683,42 +9818,46 @@
       <c r="D31" s="2">
         <v>102170100</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="9">
         <f t="shared" si="1"/>
+        <v>80.21226366618022</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="2"/>
         <v>11.292431695707917</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>13408511</v>
       </c>
-      <c r="G31" s="9">
-        <f t="shared" si="2"/>
+      <c r="H31" s="8">
+        <f t="shared" si="3"/>
         <v>11.784761141189211</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>4037613</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="3"/>
+      <c r="J31">
+        <f t="shared" si="4"/>
         <v>3.3209004924444221</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.64525834392567449</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="4"/>
-        <v>0.10682092308439212</v>
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
-        <v>51757.632415769003</v>
+        <v>0.10682092308439212</v>
       </c>
       <c r="M31">
         <f t="shared" si="6"/>
+        <v>51757.632415769003</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="7"/>
         <v>10.854327186547634</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <v>1985</v>
       </c>
       <c r="B32" s="3">
@@ -9731,42 +9870,46 @@
       <c r="D32" s="2">
         <v>104336700</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="9">
         <f t="shared" si="1"/>
+        <v>81.82167923654859</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="2"/>
         <v>11.312297514818967</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14135037</v>
       </c>
-      <c r="G32" s="9">
-        <f t="shared" si="2"/>
+      <c r="H32" s="8">
+        <f t="shared" si="3"/>
         <v>11.816543997000212</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>4338979</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
+      <c r="J32">
+        <f t="shared" si="4"/>
         <v>3.2576873499502992</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.65047325247525023</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="4"/>
-        <v>0.10729290750694118</v>
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
-        <v>53222.813815984409</v>
+        <v>0.10729290750694118</v>
       </c>
       <c r="M32">
         <f t="shared" si="6"/>
+        <v>53222.813815984409</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
         <v>10.882242414535472</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
         <v>1986</v>
       </c>
       <c r="B33" s="3">
@@ -9779,42 +9922,46 @@
       <c r="D33" s="2">
         <v>106678600</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="9">
         <f t="shared" si="1"/>
+        <v>82.796465270447868</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="2"/>
         <v>11.324140649491673</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15069496</v>
       </c>
-      <c r="G33" s="9">
-        <f t="shared" si="2"/>
+      <c r="H33" s="8">
+        <f t="shared" si="3"/>
         <v>11.858362550246962</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>4579631</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="3"/>
+      <c r="J33">
+        <f t="shared" si="4"/>
         <v>3.2905480812755439</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.66347370248039583</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="4"/>
-        <v>0.10227059116217306</v>
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
-        <v>54933.277365273563</v>
+        <v>0.10227059116217306</v>
       </c>
       <c r="M33">
         <f t="shared" si="6"/>
+        <v>54933.277365273563</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
         <v>10.91387458895284</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
         <v>1987</v>
       </c>
       <c r="B34" s="3">
@@ -9827,42 +9974,46 @@
       <c r="D34" s="2">
         <v>109399700</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
+        <v>83.526234532635826</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="2"/>
         <v>11.332916047512446</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>15993729</v>
       </c>
-      <c r="G34" s="9">
-        <f t="shared" si="2"/>
+      <c r="H34" s="8">
+        <f t="shared" si="3"/>
         <v>11.892699118122705</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>4855215</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="3"/>
+      <c r="J34">
+        <f t="shared" si="4"/>
         <v>3.2941340393782768</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.66421004066888345</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="4"/>
-        <v>0.10193573039744684</v>
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>55478.963635840737</v>
+        <v>0.10193573039744684</v>
       </c>
       <c r="M34">
         <f t="shared" si="6"/>
+        <v>55478.963635840737</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
         <v>10.923759194294684</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
         <v>1988</v>
       </c>
       <c r="B35" s="3">
@@ -9875,42 +10026,46 @@
       <c r="D35" s="2">
         <v>111771600</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="9">
         <f t="shared" si="1"/>
+        <v>85.168566970500549</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="2"/>
         <v>11.352387712474034</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17027096</v>
       </c>
-      <c r="G35" s="9">
-        <f t="shared" si="2"/>
+      <c r="H35" s="8">
+        <f t="shared" si="3"/>
         <v>11.933859012084625</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>5236438</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="3"/>
+      <c r="J35">
+        <f t="shared" si="4"/>
         <v>3.2516561830771225</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.65924299428236122</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="4"/>
-        <v>0.10479490651289339</v>
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
-        <v>56146.781108370589</v>
+        <v>0.10479490651289339</v>
       </c>
       <c r="M35">
         <f t="shared" si="6"/>
+        <v>56146.781108370589</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="7"/>
         <v>10.935724631869224</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <v>1989</v>
       </c>
       <c r="B36" s="3">
@@ -9923,42 +10078,46 @@
       <c r="D36" s="2">
         <v>113979700</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="9">
         <f t="shared" si="1"/>
+        <v>86.585620070942454</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="2"/>
         <v>11.368889030773584</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>18017971</v>
       </c>
-      <c r="G36" s="9">
-        <f t="shared" si="2"/>
+      <c r="H36" s="8">
+        <f t="shared" si="3"/>
         <v>11.970859844327936</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>5641580</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="3"/>
+      <c r="J36">
+        <f t="shared" si="4"/>
         <v>3.1937809975219706</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.65954055271900736</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="4"/>
-        <v>0.10660074925148356</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
-        <v>57106.727719107366</v>
+        <v>0.10660074925148356</v>
       </c>
       <c r="M36">
         <f t="shared" si="6"/>
+        <v>57106.727719107366</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="7"/>
         <v>10.952677212155432</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
         <v>1990</v>
       </c>
       <c r="B37" s="3">
@@ -9971,42 +10130,46 @@
       <c r="D37" s="2">
         <v>115447200</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="9">
         <f t="shared" si="1"/>
+        <v>87.097209806734156</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="2"/>
         <v>11.37478012796163</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>18893575</v>
       </c>
-      <c r="G37" s="9">
-        <f t="shared" si="2"/>
+      <c r="H37" s="8">
+        <f t="shared" si="3"/>
         <v>12.00551919256176</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>5963144</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="3"/>
+      <c r="J37">
+        <f t="shared" si="4"/>
         <v>3.1683915397649294</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.66621572488442748</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="4"/>
-        <v>0.10534817775089021</v>
       </c>
       <c r="L37">
         <f t="shared" si="5"/>
-        <v>58025.53076680447</v>
+        <v>0.10534817775089021</v>
       </c>
       <c r="M37">
         <f t="shared" si="6"/>
+        <v>58025.53076680447</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="7"/>
         <v>10.968638378309841</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
         <v>1991</v>
       </c>
       <c r="B38" s="3">
@@ -10019,42 +10182,46 @@
       <c r="D38" s="2">
         <v>114418200</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="9">
         <f t="shared" si="1"/>
+        <v>87.785317370837859</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="2"/>
         <v>11.382649537516452</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>19388816</v>
       </c>
-      <c r="G38" s="9">
-        <f t="shared" si="2"/>
+      <c r="H38" s="8">
+        <f t="shared" si="3"/>
         <v>12.040346805749978</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>6158129</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="3"/>
+      <c r="J38">
+        <f t="shared" si="4"/>
         <v>3.1484913680762454</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.66810710962966258</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="4"/>
-        <v>0.10541330801650785</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
-        <v>58649.994656553092</v>
+        <v>0.10541330801650785</v>
       </c>
       <c r="M38">
         <f t="shared" si="6"/>
+        <v>58649.994656553092</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="7"/>
         <v>10.979342762974253</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
         <v>1992</v>
       </c>
       <c r="B39" s="3">
@@ -10067,42 +10234,46 @@
       <c r="D39" s="2">
         <v>115150900</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="9">
         <f t="shared" si="1"/>
+        <v>90.299302914697151</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="2"/>
         <v>11.410885019715227</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>20191544</v>
       </c>
-      <c r="G39" s="9">
-        <f t="shared" si="2"/>
+      <c r="H39" s="8">
+        <f t="shared" si="3"/>
         <v>12.074531018738339</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>6520327</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="3"/>
+      <c r="J39">
+        <f t="shared" si="4"/>
         <v>3.0967072663686959</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.66991998024708677</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="4"/>
-        <v>0.10659064333839222</v>
       </c>
       <c r="L39">
         <f t="shared" si="5"/>
-        <v>60493.307224939621</v>
+        <v>0.10659064333839222</v>
       </c>
       <c r="M39">
         <f t="shared" si="6"/>
+        <v>60493.307224939621</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="7"/>
         <v>11.010288013518441</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
         <v>1993</v>
       </c>
       <c r="B40" s="3">
@@ -10115,42 +10286,46 @@
       <c r="D40" s="2">
         <v>116928800</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="9">
         <f t="shared" si="1"/>
+        <v>91.37337422431429</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="2"/>
         <v>11.422709404547028</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>21201825</v>
       </c>
-      <c r="G40" s="9">
-        <f t="shared" si="2"/>
+      <c r="H40" s="8">
+        <f t="shared" si="3"/>
         <v>12.108032618293485</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>6858559</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="3"/>
+      <c r="J40">
+        <f t="shared" si="4"/>
         <v>3.0912943958052996</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>0.66610188124150427</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="4"/>
-        <v>0.10801239739947621</v>
       </c>
       <c r="L40">
         <f t="shared" si="5"/>
-        <v>60863.976466199725</v>
+        <v>0.10801239739947621</v>
       </c>
       <c r="M40">
         <f t="shared" si="6"/>
+        <v>60863.976466199725</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="7"/>
         <v>11.016396759242916</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
         <v>1994</v>
       </c>
       <c r="B41" s="3">
@@ -10163,42 +10338,46 @@
       <c r="D41" s="2">
         <v>119383600</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="9">
         <f t="shared" si="1"/>
+        <v>93.100283456019085</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="2"/>
         <v>11.441432507900901</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22449857</v>
       </c>
-      <c r="G41" s="9">
-        <f t="shared" si="2"/>
+      <c r="H41" s="8">
+        <f t="shared" si="3"/>
         <v>12.144452964330965</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>7287236</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="3"/>
+      <c r="J41">
+        <f t="shared" si="4"/>
         <v>3.0807094761305933</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>0.65510439387841968</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="4"/>
-        <v>0.11195330452087068</v>
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
-        <v>60990.404763364444</v>
+        <v>0.11195330452087068</v>
       </c>
       <c r="M41">
         <f t="shared" si="6"/>
+        <v>60990.404763364444</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
         <v>11.018471831821431</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
         <v>1995</v>
       </c>
       <c r="B42" s="3">
@@ -10211,42 +10390,46 @@
       <c r="D42" s="2">
         <v>121233500</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="9">
         <f t="shared" si="1"/>
+        <v>94.140744926113655</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="2"/>
         <v>11.452546227884456</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>23527514</v>
       </c>
-      <c r="G42" s="9">
-        <f t="shared" si="2"/>
+      <c r="H42" s="8">
+        <f t="shared" si="3"/>
         <v>12.175962664679945</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>7639749</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="3"/>
+      <c r="J42">
+        <f t="shared" si="4"/>
         <v>3.0796187152221886</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>0.65054753786555142</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="4"/>
-        <v>0.11347263880659859</v>
       </c>
       <c r="L42">
         <f t="shared" si="5"/>
-        <v>61243.029824512138</v>
+        <v>0.11347263880659859</v>
       </c>
       <c r="M42">
         <f t="shared" si="6"/>
+        <v>61243.029824512138</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
         <v>11.022605323147925</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
         <v>1996</v>
       </c>
       <c r="B43" s="3">
@@ -10259,42 +10442,46 @@
       <c r="D43" s="2">
         <v>123017800</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="9">
         <f t="shared" si="1"/>
+        <v>96.275490213611363</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="2"/>
         <v>11.474969050476028</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24627391</v>
       </c>
-      <c r="G43" s="9">
-        <f t="shared" si="2"/>
+      <c r="H43" s="8">
+        <f t="shared" si="3"/>
         <v>12.20704077640627</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>8073122</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="3"/>
+      <c r="J43">
+        <f t="shared" si="4"/>
         <v>3.0505411661064952</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>0.64277721823264355</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="4"/>
-        <v>0.11710144604384785</v>
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
-        <v>61883.691783489208</v>
+        <v>0.11710144604384785</v>
       </c>
       <c r="M43">
         <f t="shared" si="6"/>
+        <v>61883.691783489208</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="7"/>
         <v>11.033011963274058</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
         <v>1997</v>
       </c>
       <c r="B44" s="3">
@@ -10307,42 +10494,46 @@
       <c r="D44" s="2">
         <v>125797300</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="9">
         <f t="shared" si="1"/>
+        <v>98.335170945640328</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="2"/>
         <v>11.49613703406202</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>25885682</v>
       </c>
-      <c r="G44" s="9">
-        <f t="shared" si="2"/>
+      <c r="H44" s="8">
+        <f t="shared" si="3"/>
         <v>12.23452867387954</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>8577552</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="3"/>
+      <c r="J44">
+        <f t="shared" si="4"/>
         <v>3.0178402882314206</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>0.64054465676144212</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="4"/>
-        <v>0.11911012807414456</v>
       </c>
       <c r="L44">
         <f t="shared" si="5"/>
-        <v>62988.068320952916</v>
+        <v>0.11911012807414456</v>
       </c>
       <c r="M44">
         <f t="shared" si="6"/>
+        <v>62988.068320952916</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="7"/>
         <v>11.050700595705885</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
         <v>1998</v>
       </c>
       <c r="B45" s="3">
@@ -10355,42 +10546,46 @@
       <c r="D45" s="2">
         <v>127738500</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="9">
         <f t="shared" si="1"/>
+        <v>101.18230603929121</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="2"/>
         <v>11.524679179039964</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27304358</v>
       </c>
-      <c r="G45" s="9">
-        <f t="shared" si="2"/>
+      <c r="H45" s="8">
+        <f t="shared" si="3"/>
         <v>12.272571675652381</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>9062817</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="3"/>
+      <c r="J45">
+        <f t="shared" si="4"/>
         <v>3.0127892905704705</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0.64791259256874323</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="4"/>
-        <v>0.11686426546099052</v>
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
-        <v>65557.290228001177</v>
+        <v>0.11686426546099052</v>
       </c>
       <c r="M45">
         <f t="shared" si="6"/>
+        <v>65557.290228001177</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="7"/>
         <v>11.090679699300697</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
         <v>1999</v>
       </c>
       <c r="B46" s="3">
@@ -10403,42 +10598,46 @@
       <c r="D46" s="2">
         <v>129606300</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="9">
         <f t="shared" si="1"/>
+        <v>104.49934918287151</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="2"/>
         <v>11.556936122452504</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29031764</v>
       </c>
-      <c r="G46" s="9">
-        <f t="shared" si="2"/>
+      <c r="H46" s="8">
+        <f t="shared" si="3"/>
         <v>12.319399705033053</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <v>9631172</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="3"/>
+      <c r="J46">
+        <f t="shared" si="4"/>
         <v>3.0143542239719112</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>0.65151771682599224</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="4"/>
-        <v>0.11560760855597939</v>
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
-        <v>68083.177389426564</v>
+        <v>0.11560760855597939</v>
       </c>
       <c r="M46">
         <f t="shared" si="6"/>
+        <v>68083.177389426564</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="7"/>
         <v>11.128485433565737</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
         <v>2000</v>
       </c>
       <c r="B47" s="3">
@@ -10451,42 +10650,46 @@
       <c r="D47" s="2">
         <v>132711700.00000001</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="9">
         <f t="shared" si="1"/>
+        <v>106.2154504840191</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="2"/>
         <v>11.573224861991697</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>30958773</v>
       </c>
-      <c r="G47" s="9">
-        <f t="shared" si="2"/>
+      <c r="H47" s="8">
+        <f t="shared" si="3"/>
         <v>12.359987867864165</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>10250952</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="3"/>
+      <c r="J47">
+        <f t="shared" si="4"/>
         <v>3.0200875977177533</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>0.65890982277379795</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="4"/>
-        <v>0.11294049135659513</v>
       </c>
       <c r="L47">
         <f t="shared" si="5"/>
-        <v>69986.403654264141</v>
+        <v>0.11294049135659513</v>
       </c>
       <c r="M47">
         <f t="shared" si="6"/>
+        <v>69986.403654264141</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
         <v>11.156056268655213</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
         <v>2001</v>
       </c>
       <c r="B48" s="3">
@@ -10499,42 +10702,46 @@
       <c r="D48" s="2">
         <v>132680799.99999999</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="9">
         <f t="shared" si="1"/>
+        <v>107.2553526960947</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="2"/>
         <v>11.582967744133168</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32672785</v>
       </c>
-      <c r="G48" s="9">
-        <f t="shared" si="2"/>
+      <c r="H48" s="8">
+        <f t="shared" si="3"/>
         <v>12.414106782741969</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>10581929</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="3"/>
+      <c r="J48">
+        <f t="shared" si="4"/>
         <v>3.0876019863675137</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>0.6599637969841895</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="4"/>
-        <v>0.11012954536146499</v>
       </c>
       <c r="L48">
         <f t="shared" si="5"/>
-        <v>70784.649812193078</v>
+        <v>0.11012954536146499</v>
       </c>
       <c r="M48">
         <f t="shared" si="6"/>
+        <v>70784.649812193078</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
         <v>11.167397445612758</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
         <v>2002</v>
       </c>
       <c r="B49" s="3">
@@ -10547,42 +10754,46 @@
       <c r="D49" s="2">
         <v>132179500</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="9">
         <f t="shared" si="1"/>
+        <v>109.49286387072125</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="2"/>
         <v>11.603614655984629</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>34261655</v>
       </c>
-      <c r="G49" s="9">
-        <f t="shared" si="2"/>
+      <c r="H49" s="8">
+        <f t="shared" si="3"/>
         <v>12.46537650944251</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>10929108</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="3"/>
+      <c r="J49">
+        <f t="shared" si="4"/>
         <v>3.1348994812751414</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>0.65276972396923372</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="4"/>
-        <v>0.11076281013307898</v>
       </c>
       <c r="L49">
         <f t="shared" si="5"/>
-        <v>71473.626525491592</v>
+        <v>0.11076281013307898</v>
       </c>
       <c r="M49">
         <f t="shared" si="6"/>
+        <v>71473.626525491592</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="7"/>
         <v>11.177083800853261</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
         <v>2003</v>
       </c>
       <c r="B50" s="3">
@@ -10595,42 +10806,46 @@
       <c r="D50" s="2">
         <v>133127600</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="9">
         <f t="shared" si="1"/>
+        <v>111.75227375840923</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="2"/>
         <v>11.624039859100224</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>36072552</v>
       </c>
-      <c r="G50" s="9">
-        <f t="shared" si="2"/>
+      <c r="H50" s="8">
+        <f t="shared" si="3"/>
         <v>12.509734734904447</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>11456450</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="3"/>
+      <c r="J50">
+        <f t="shared" si="4"/>
         <v>3.1486675191704236</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>0.64700388786484953</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="4"/>
-        <v>0.11210968131311433</v>
       </c>
       <c r="L50">
         <f t="shared" si="5"/>
-        <v>72304.155599427773</v>
+        <v>0.11210968131311433</v>
       </c>
       <c r="M50">
         <f t="shared" si="6"/>
+        <v>72304.155599427773</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="7"/>
         <v>11.188636883665616</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
         <v>2004</v>
       </c>
       <c r="B51" s="3">
@@ -10643,42 +10858,46 @@
       <c r="D51" s="2">
         <v>134433200</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="9">
         <f t="shared" si="1"/>
+        <v>114.925159856345</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="2"/>
         <v>11.652036411635784</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>39609215</v>
       </c>
-      <c r="G51" s="9">
-        <f t="shared" si="2"/>
+      <c r="H51" s="8">
+        <f t="shared" si="3"/>
         <v>12.59350492978078</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>12217196</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="3"/>
+      <c r="J51">
+        <f t="shared" si="4"/>
         <v>3.2420872187038663</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>0.63994087714770331</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="4"/>
-        <v>0.11105781509364897</v>
       </c>
       <c r="L51">
         <f t="shared" si="5"/>
-        <v>73545.307604809452</v>
+        <v>0.11105781509364897</v>
       </c>
       <c r="M51">
         <f t="shared" si="6"/>
+        <v>73545.307604809452</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="7"/>
         <v>11.205656925283407</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
         <v>2005</v>
       </c>
       <c r="B52" s="3">
@@ -10691,42 +10910,46 @@
       <c r="D52" s="2">
         <v>136635600</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="9">
         <f t="shared" si="1"/>
+        <v>117.01164996530919</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="2"/>
         <v>11.670028781175965</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>43396612</v>
       </c>
-      <c r="G52" s="9">
-        <f t="shared" si="2"/>
+      <c r="H52" s="8">
+        <f t="shared" si="3"/>
         <v>12.66857440339068</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>13039197</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="3"/>
+      <c r="J52">
+        <f t="shared" si="4"/>
         <v>3.328165990589758</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>0.63090567790440344</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="4"/>
-        <v>0.11090021445420524</v>
       </c>
       <c r="L52">
         <f t="shared" si="5"/>
-        <v>73823.314344076163</v>
+        <v>0.11090021445420524</v>
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
+        <v>73823.314344076163</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="7"/>
         <v>11.209429873220067</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
         <v>2006</v>
       </c>
       <c r="B53" s="3">
@@ -10739,42 +10962,46 @@
       <c r="D53" s="2">
         <v>139102300</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="9">
         <f t="shared" si="1"/>
+        <v>118.13714079494012</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="2"/>
         <v>11.679601438731046</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <v>46803978</v>
       </c>
-      <c r="G53" s="9">
-        <f t="shared" si="2"/>
+      <c r="H53" s="8">
+        <f t="shared" si="3"/>
         <v>12.72626912361588</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>13815583</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="3"/>
+      <c r="J53">
+        <f t="shared" si="4"/>
         <v>3.3877671322303229</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>0.62603637361929143</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="4"/>
-        <v>0.1103864615790493</v>
       </c>
       <c r="L53">
         <f t="shared" si="5"/>
-        <v>73958.147213015982</v>
+        <v>0.1103864615790493</v>
       </c>
       <c r="M53">
         <f t="shared" si="6"/>
+        <v>73958.147213015982</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="7"/>
         <v>11.211254633984137</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
         <v>2007</v>
       </c>
       <c r="B54" s="3">
@@ -10787,42 +11014,46 @@
       <c r="D54" s="2">
         <v>140432800</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="9">
         <f t="shared" si="1"/>
+        <v>119.3627485886488</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="2"/>
         <v>11.689922442892367</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>48881747</v>
       </c>
-      <c r="G54" s="9">
-        <f t="shared" si="2"/>
+      <c r="H54" s="8">
+        <f t="shared" si="3"/>
         <v>12.760185530237294</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <v>14474228</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="3"/>
+      <c r="J54">
+        <f t="shared" si="4"/>
         <v>3.377157455306079</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>0.64027416515411895</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="4"/>
-        <v>0.10651734176050678</v>
       </c>
       <c r="L54">
         <f t="shared" si="5"/>
-        <v>76424.884203098103</v>
+        <v>0.10651734176050678</v>
       </c>
       <c r="M54">
         <f t="shared" si="6"/>
+        <v>76424.884203098103</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="7"/>
         <v>11.244063631587434</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
         <v>2008</v>
       </c>
       <c r="B55" s="3">
@@ -10835,42 +11066,46 @@
       <c r="D55" s="2">
         <v>139383200</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="9">
         <f t="shared" si="1"/>
+        <v>120.39819002577067</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="2"/>
         <v>11.698559778735312</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>50485169</v>
       </c>
-      <c r="G55" s="9">
-        <f t="shared" si="2"/>
+      <c r="H55" s="8">
+        <f t="shared" si="3"/>
         <v>12.799963193379481</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <v>14769862</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="3"/>
+      <c r="J55">
+        <f t="shared" si="4"/>
         <v>3.4181205619930641</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>0.65158776289004217</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="4"/>
-        <v>0.10193093859357698</v>
       </c>
       <c r="L55">
         <f t="shared" si="5"/>
-        <v>78449.987294902123</v>
+        <v>0.10193093859357698</v>
       </c>
       <c r="M55">
         <f t="shared" si="6"/>
+        <v>78449.987294902123</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="7"/>
         <v>11.270216596209631</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
         <v>2009</v>
       </c>
       <c r="B56" s="3">
@@ -10883,42 +11118,46 @@
       <c r="D56" s="2">
         <v>133763799.99999999</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="9">
         <f t="shared" si="1"/>
+        <v>122.22372570157249</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="2"/>
         <v>11.713608461551404</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>49639145</v>
       </c>
-      <c r="G56" s="9">
-        <f t="shared" si="2"/>
+      <c r="H56" s="8">
+        <f t="shared" si="3"/>
         <v>12.824214736115684</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>14478067</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="3"/>
+      <c r="J56">
+        <f t="shared" si="4"/>
         <v>3.4285754444982195</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>0.64308476705080087</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="4"/>
-        <v>0.10410015434309178</v>
       </c>
       <c r="L56">
         <f t="shared" si="5"/>
-        <v>78600.216170876738</v>
+        <v>0.10410015434309178</v>
       </c>
       <c r="M56">
         <f t="shared" si="6"/>
+        <v>78600.216170876738</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="7"/>
         <v>11.272129728679124</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
         <v>2010</v>
       </c>
       <c r="B57" s="3">
@@ -10931,42 +11170,46 @@
       <c r="D57" s="2">
         <v>132795600</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="9">
         <f t="shared" si="1"/>
+        <v>126.43302940760086</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="2"/>
         <v>11.747468035164184</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50514461</v>
       </c>
-      <c r="G57" s="9">
-        <f t="shared" si="2"/>
+      <c r="H57" s="8">
+        <f t="shared" si="3"/>
         <v>12.848959105725735</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>15048971</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="3"/>
+      <c r="J57">
+        <f t="shared" si="4"/>
         <v>3.3566720940587897</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>0.61942254530562102</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="4"/>
-        <v>0.11337939602977301</v>
       </c>
       <c r="L57">
         <f t="shared" si="5"/>
-        <v>78315.468886356539</v>
+        <v>0.11337939602977301</v>
       </c>
       <c r="M57">
         <f t="shared" si="6"/>
+        <v>78315.468886356539</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="7"/>
         <v>11.26850042167937</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
         <v>2011</v>
       </c>
       <c r="B58" s="3">
@@ -10979,42 +11222,46 @@
       <c r="D58" s="2">
         <v>133222200.00000001</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="9">
         <f t="shared" si="1"/>
+        <v>127.99976280229571</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="2"/>
         <v>11.759783689792972</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>52216296</v>
       </c>
-      <c r="G58" s="9">
-        <f t="shared" si="2"/>
+      <c r="H58" s="8">
+        <f t="shared" si="3"/>
         <v>12.878886777156046</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>15599732</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="3"/>
+      <c r="J58">
+        <f t="shared" si="4"/>
         <v>3.3472559656794103</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>0.61446272256619749</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="4"/>
-        <v>0.11518010017365014</v>
       </c>
       <c r="L58">
         <f t="shared" si="5"/>
-        <v>78651.082739326113</v>
+        <v>0.11518010017365014</v>
       </c>
       <c r="M58">
         <f t="shared" si="6"/>
+        <v>78651.082739326113</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="7"/>
         <v>11.27277667494381</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
         <v>2012</v>
       </c>
       <c r="B59" s="3">
@@ -11027,42 +11274,46 @@
       <c r="D59" s="2">
         <v>135224000</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="9">
         <f t="shared" si="1"/>
+        <v>128.99159172927884</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="2"/>
         <v>11.767502500826287</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53797935</v>
       </c>
-      <c r="G59" s="9">
-        <f t="shared" si="2"/>
+      <c r="H59" s="8">
+        <f t="shared" si="3"/>
         <v>12.893812978847865</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>16253970</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="3"/>
+      <c r="J59">
+        <f t="shared" si="4"/>
         <v>3.3098335360530382</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>0.60913711033531837</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="4"/>
-        <v>0.11809140411659007</v>
       </c>
       <c r="L59">
         <f t="shared" si="5"/>
-        <v>78573.565443526051</v>
+        <v>0.11809140411659007</v>
       </c>
       <c r="M59">
         <f t="shared" si="6"/>
+        <v>78573.565443526051</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="7"/>
         <v>11.27179060433749</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
         <v>2013</v>
       </c>
       <c r="B60" s="3">
@@ -11075,42 +11326,46 @@
       <c r="D60" s="2">
         <v>136248000</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="9">
         <f t="shared" si="1"/>
+        <v>130.7334199401092</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="2"/>
         <v>11.780915566545017</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56258906</v>
       </c>
-      <c r="G60" s="9">
-        <f t="shared" si="2"/>
+      <c r="H60" s="8">
+        <f t="shared" si="3"/>
         <v>12.930998160868462</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>16880683</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="3"/>
+      <c r="J60">
+        <f t="shared" si="4"/>
         <v>3.3327387286403045</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>0.61103636774198677</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="4"/>
-        <v>0.11670990855520895</v>
       </c>
       <c r="L60">
         <f t="shared" si="5"/>
-        <v>79882.87406269215</v>
+        <v>0.11670990855520895</v>
       </c>
       <c r="M60">
         <f t="shared" si="6"/>
+        <v>79882.87406269215</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="7"/>
         <v>11.288316766635777</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
         <v>2014</v>
       </c>
       <c r="B61" s="3">
@@ -11123,42 +11378,46 @@
       <c r="D61" s="2">
         <v>138334400</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="9">
         <f t="shared" si="1"/>
+        <v>132.01137244242935</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="2"/>
         <v>11.790643352724279</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>58435108</v>
       </c>
-      <c r="G61" s="9">
-        <f t="shared" si="2"/>
+      <c r="H61" s="8">
+        <f t="shared" si="3"/>
         <v>12.953753489178863</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>17608138</v>
       </c>
-      <c r="I61">
-        <f t="shared" si="3"/>
+      <c r="J61">
+        <f t="shared" si="4"/>
         <v>3.3186420960580842</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>0.60998887405312074</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="4"/>
-        <v>0.1175212977651728</v>
       </c>
       <c r="L61">
         <f t="shared" si="5"/>
-        <v>80525.468438364653</v>
+        <v>0.1175212977651728</v>
       </c>
       <c r="M61">
         <f t="shared" si="6"/>
+        <v>80525.468438364653</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="7"/>
         <v>11.296328791485983</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
         <v>2015</v>
       </c>
       <c r="B62" s="3">
@@ -11171,42 +11430,46 @@
       <c r="D62" s="2">
         <v>140368800</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="9">
         <f t="shared" si="1"/>
+        <v>133.93020386296669</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="2"/>
         <v>11.80507407654059</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>59895523</v>
       </c>
-      <c r="G62" s="9">
-        <f t="shared" si="2"/>
+      <c r="H62" s="8">
+        <f t="shared" si="3"/>
         <v>12.963839074382548</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <v>18295019</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="3"/>
+      <c r="J62">
+        <f t="shared" si="4"/>
         <v>3.2738704999431811</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>0.61838032030194068</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="4"/>
-        <v>0.11656529471910464</v>
       </c>
       <c r="L62">
         <f t="shared" si="5"/>
-        <v>82819.802362885559</v>
+        <v>0.11656529471910464</v>
       </c>
       <c r="M62">
         <f t="shared" si="6"/>
+        <v>82819.802362885559</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="7"/>
         <v>11.32442247075145</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
         <v>2016</v>
       </c>
       <c r="B63" s="3">
@@ -11219,42 +11482,46 @@
       <c r="D63" s="2">
         <v>142519700</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="9">
         <f t="shared" si="1"/>
+        <v>134.30895518303785</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="2"/>
         <v>11.807898060727885</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>62368968</v>
       </c>
-      <c r="G63" s="9">
-        <f t="shared" si="2"/>
+      <c r="H63" s="8">
+        <f t="shared" si="3"/>
         <v>12.989098166181169</v>
       </c>
-      <c r="H63" s="1">
+      <c r="I63" s="1">
         <v>18804913</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="3"/>
+      <c r="J63">
+        <f t="shared" si="4"/>
         <v>3.3166315632515824</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>0.62384637245340613</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="4"/>
-        <v>0.1134143544053527</v>
       </c>
       <c r="L63">
         <f t="shared" si="5"/>
-        <v>83788.15447894526</v>
+        <v>0.1134143544053527</v>
       </c>
       <c r="M63">
         <f t="shared" si="6"/>
+        <v>83788.15447894526</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="7"/>
         <v>11.336046921812137</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
         <v>2017</v>
       </c>
       <c r="B64" s="3">
@@ -11267,42 +11534,46 @@
       <c r="D64" s="2">
         <v>144103300</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="9">
         <f t="shared" si="1"/>
+        <v>136.09752170838559</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="2"/>
         <v>11.821126979130529</v>
       </c>
-      <c r="F64" s="3">
+      <c r="G64" s="3">
         <v>64930281</v>
       </c>
-      <c r="G64" s="9">
-        <f t="shared" si="2"/>
+      <c r="H64" s="8">
+        <f t="shared" si="3"/>
         <v>13.018294248706251</v>
       </c>
-      <c r="H64" s="1">
+      <c r="I64" s="1">
         <v>19612102</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="3"/>
+      <c r="J64">
+        <f t="shared" si="4"/>
         <v>3.3107252348575384</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>0.62465541512096334</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="4"/>
-        <v>0.11337231520367708</v>
       </c>
       <c r="L64">
         <f t="shared" si="5"/>
-        <v>85014.053919685917</v>
+        <v>0.11337231520367708</v>
       </c>
       <c r="M64">
         <f t="shared" si="6"/>
+        <v>85014.053919685917</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="7"/>
         <v>11.350571862036864</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
         <v>2018</v>
       </c>
       <c r="B65" s="3">
@@ -11315,42 +11586,46 @@
       <c r="D65" s="2">
         <v>146055500</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="9">
         <f t="shared" si="1"/>
+        <v>138.26179774126959</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="2"/>
         <v>11.836904252027695</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G65" s="3">
         <v>68251758</v>
       </c>
-      <c r="G65" s="9">
-        <f t="shared" si="2"/>
+      <c r="H65" s="8">
+        <f t="shared" si="3"/>
         <v>13.054727063478484</v>
       </c>
-      <c r="H65" s="1">
+      <c r="I65" s="1">
         <v>20656516</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="3"/>
+      <c r="J65">
+        <f t="shared" si="4"/>
         <v>3.3041272787724707</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>0.62361511554979343</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="4"/>
-        <v>0.11391355498570224</v>
       </c>
       <c r="L65">
         <f t="shared" si="5"/>
-        <v>86222.146974543997</v>
+        <v>0.11391355498570224</v>
       </c>
       <c r="M65">
         <f t="shared" si="6"/>
+        <v>86222.146974543997</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="7"/>
         <v>11.364682349110838</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
         <v>2019</v>
       </c>
       <c r="B66" s="3">
@@ -11363,322 +11638,338 @@
       <c r="D66" s="2">
         <v>147191300</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="9">
         <f t="shared" si="1"/>
+        <v>140.57955191645158</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="2"/>
         <v>11.853528813332952</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>70997624</v>
       </c>
-      <c r="G66" s="9">
-        <f t="shared" si="2"/>
+      <c r="H66" s="8">
+        <f t="shared" si="3"/>
         <v>13.086423868369659</v>
       </c>
-      <c r="H66" s="1">
+      <c r="I66" s="1">
         <v>21521395</v>
       </c>
-      <c r="I66">
-        <f t="shared" si="3"/>
+      <c r="J66">
+        <f t="shared" si="4"/>
         <v>3.2989322485833283</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>0.62621909319432423</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="4"/>
-        <v>0.11330360208706612</v>
       </c>
       <c r="L66">
         <f t="shared" si="5"/>
-        <v>88033.599522784731</v>
+        <v>0.11330360208706612</v>
       </c>
       <c r="M66">
         <f t="shared" si="6"/>
+        <v>88033.599522784731</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="7"/>
         <v>11.385473833347318</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
         <v>2020</v>
       </c>
       <c r="B67" s="3">
         <v>20234074</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C69" si="7">LN(B67)</f>
+        <f t="shared" ref="C67:C69" si="8">LN(B67)</f>
         <v>16.822878572951922</v>
       </c>
       <c r="D67" s="2">
         <v>137976800</v>
       </c>
-      <c r="E67" s="6">
-        <f t="shared" ref="E67:E69" si="8">LN(B67*1000000/D67)</f>
+      <c r="E67" s="9">
+        <f t="shared" ref="E67:E69" si="9">B67*1000/D67</f>
+        <v>146.64837856799113</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" ref="F67:F69" si="10">LN(B67*1000000/D67)</f>
         <v>11.895793017869813</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <v>74284795</v>
       </c>
-      <c r="G67" s="9">
-        <f t="shared" ref="G67:G69" si="9">LN(F67*1000000/D67)</f>
+      <c r="H67" s="8">
+        <f t="shared" ref="H67:H69" si="11">LN(G67*1000000/D67)</f>
         <v>13.196331290325755</v>
       </c>
-      <c r="H67" s="1">
+      <c r="I67" s="1">
         <v>21322950</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I67:I69" si="10">F67/H67</f>
+      <c r="J67">
+        <f t="shared" ref="J67:J69" si="12">G67/I67</f>
         <v>3.4837953941645035</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>0.64941503435636971</v>
       </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K69" si="11">(1-J67)*(H67/F67)</f>
+      <c r="L67">
+        <f t="shared" ref="L67:L69" si="13">(1-K67)*(I67/G67)</f>
         <v>0.10063305274209677</v>
       </c>
-      <c r="L67">
-        <f t="shared" ref="L67:L69" si="12">J67*B67*1000000/D67</f>
+      <c r="M67">
+        <f t="shared" ref="M67:M69" si="14">K67*B67*1000000/D67</f>
         <v>95235.661806037868</v>
       </c>
-      <c r="M67">
-        <f t="shared" ref="M67:M69" si="13">LN(L67)</f>
+      <c r="N67">
+        <f t="shared" ref="N67:N69" si="15">LN(M67)</f>
         <v>11.46410974943776</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
         <v>2021</v>
       </c>
       <c r="B68" s="3">
         <v>21407692</v>
       </c>
       <c r="C68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.879260854661602</v>
       </c>
       <c r="D68" s="2">
         <v>142453300</v>
       </c>
-      <c r="E68" s="6">
-        <f t="shared" si="8"/>
+      <c r="E68" s="9">
+        <f t="shared" si="9"/>
+        <v>150.27866676307252</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="10"/>
         <v>11.920246627962849</v>
       </c>
-      <c r="F68" s="3">
+      <c r="G68" s="3">
         <v>84439226</v>
       </c>
-      <c r="G68" s="9">
-        <f t="shared" si="9"/>
+      <c r="H68" s="8">
+        <f t="shared" si="11"/>
         <v>13.29252838793172</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <v>23594031</v>
       </c>
-      <c r="I68">
-        <f t="shared" si="10"/>
+      <c r="J68">
+        <f t="shared" si="12"/>
         <v>3.578838478257488</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>0.63013895340240256</v>
       </c>
-      <c r="K68">
-        <f t="shared" si="11"/>
+      <c r="L68">
+        <f t="shared" si="13"/>
         <v>0.10334667206821814</v>
       </c>
-      <c r="L68">
-        <f t="shared" si="12"/>
+      <c r="M68">
+        <f t="shared" si="14"/>
         <v>94696.441792790938</v>
       </c>
-      <c r="M68">
-        <f t="shared" si="13"/>
+      <c r="N68">
+        <f t="shared" si="15"/>
         <v>11.458431705002493</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
         <v>2022</v>
       </c>
       <c r="B69" s="3">
         <v>21822037</v>
       </c>
       <c r="C69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.898430888732356</v>
       </c>
       <c r="D69" s="2">
         <v>147716900</v>
       </c>
-      <c r="E69" s="6">
-        <f t="shared" si="8"/>
+      <c r="E69" s="9">
+        <f t="shared" si="9"/>
+        <v>147.728777140598</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="10"/>
         <v>11.903133284616722</v>
       </c>
-      <c r="F69" s="3">
+      <c r="G69" s="3">
         <v>93588808</v>
       </c>
-      <c r="G69" s="9">
-        <f t="shared" si="9"/>
+      <c r="H69" s="8">
+        <f t="shared" si="11"/>
         <v>13.359123757533233</v>
       </c>
-      <c r="H69" s="1">
+      <c r="I69" s="1">
         <v>25744108</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="10"/>
+      <c r="J69">
+        <f t="shared" si="12"/>
         <v>3.6353486397741963</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>0.61993473685084544</v>
       </c>
-      <c r="K69">
-        <f t="shared" si="11"/>
+      <c r="L69">
+        <f t="shared" si="13"/>
         <v>0.10454712898534038</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="12"/>
+      <c r="M69">
+        <f t="shared" si="14"/>
         <v>91582.200581953817</v>
       </c>
-      <c r="M69">
-        <f t="shared" si="13"/>
+      <c r="N69">
+        <f t="shared" si="15"/>
         <v>11.42499221498937</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B70" s="3"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="6"/>
-      <c r="H70" s="1"/>
-      <c r="K70" s="1"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="5"/>
+      <c r="I70" s="1"/>
+      <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B71" s="3"/>
-      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B72" s="3"/>
-      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B73" s="3"/>
-      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B74" s="3"/>
-      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B75" s="3"/>
-      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B76" s="3"/>
-      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B77" s="3"/>
-      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
-      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B79" s="3"/>
-      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
-      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="3"/>
-      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="3"/>
-      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="3"/>
-      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="3"/>
-      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="3"/>
-      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="3"/>
-      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="3"/>
-      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="3"/>
-      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="3"/>
-      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="3"/>
-      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="3"/>
-      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="3"/>
-      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="3"/>
-      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="3"/>
-      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="3"/>
-      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="3"/>
-      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K97" s="1"/>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K98" s="1"/>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K99" s="1"/>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K100" s="1"/>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K101" s="1"/>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K102" s="1"/>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K103" s="1"/>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K104" s="1"/>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K105" s="1"/>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L105" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11694,21 +11985,21 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11716,7 +12007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11724,7 +12015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -11732,7 +12023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -11740,7 +12031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
